--- a/data/534/BSE/BSE Index - Weekly.xlsx
+++ b/data/534/BSE/BSE Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BHQ3"/>
+  <dimension ref="A1:BHR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8239,15 +8239,20 @@
       </c>
       <c r="BHO1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="BHP1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BHP1" s="1" t="inlineStr">
+      <c r="BHQ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BHQ1" s="1" t="inlineStr">
+      <c r="BHR1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -12972,19 +12977,22 @@
         <v>17531.68</v>
       </c>
       <c r="BHN2" t="n">
-        <v>17718.67</v>
-      </c>
-      <c r="BHO2" t="inlineStr">
+        <v>17950.06</v>
+      </c>
+      <c r="BHO2" t="n">
+        <v>18288.83</v>
+      </c>
+      <c r="BHP2" t="inlineStr">
         <is>
           <t>BSE100</t>
         </is>
       </c>
-      <c r="BHP2" t="inlineStr">
+      <c r="BHQ2" t="inlineStr">
         <is>
           <t>National Index, Close Price</t>
         </is>
       </c>
-      <c r="BHQ2" t="inlineStr">
+      <c r="BHR2" t="inlineStr">
         <is>
           <t>Index: 1983.01.01=100</t>
         </is>
@@ -17701,19 +17709,22 @@
         <v>57863.93</v>
       </c>
       <c r="BHN3" t="n">
-        <v>58542.88</v>
-      </c>
-      <c r="BHO3" t="inlineStr">
+        <v>59276.69</v>
+      </c>
+      <c r="BHO3" t="n">
+        <v>60176.5</v>
+      </c>
+      <c r="BHP3" t="inlineStr">
         <is>
           <t>BSESN</t>
         </is>
       </c>
-      <c r="BHP3" t="inlineStr">
+      <c r="BHQ3" t="inlineStr">
         <is>
           <t>Sensitive Index, Close Price</t>
         </is>
       </c>
-      <c r="BHQ3" t="inlineStr">
+      <c r="BHR3" t="inlineStr">
         <is>
           <t>Index: 1978.01.01=100</t>
         </is>
